--- a/data/trans_orig/P3A$otra-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P3A$otra-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4959</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1183</v>
+        <v>1136</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12962</v>
+        <v>11594</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009955876050053899</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002375751339747224</v>
+        <v>0.002279898813502932</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02602087422936133</v>
+        <v>0.02327540665120599</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>2507</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>724</v>
+        <v>671</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6777</v>
+        <v>6446</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004024247121007585</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001161421560687256</v>
+        <v>0.001077068938670666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01087774376345012</v>
+        <v>0.01034652847585732</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -783,19 +783,19 @@
         <v>7466</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3185</v>
+        <v>3206</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15041</v>
+        <v>15265</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006659704054114586</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002841054969931133</v>
+        <v>0.002859287123581944</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0134154066828459</v>
+        <v>0.01361524102135298</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>18947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11613</v>
+        <v>11842</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28353</v>
+        <v>28714</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03803582278418976</v>
+        <v>0.03803582278418978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02331365758741093</v>
+        <v>0.02377262006316329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05691918085282604</v>
+        <v>0.05764462495690629</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -833,19 +833,19 @@
         <v>37888</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29143</v>
+        <v>29738</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47371</v>
+        <v>49437</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06081398196529715</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04677719646555584</v>
+        <v>0.0477328771325823</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07603526037421787</v>
+        <v>0.07935080100248287</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>88</v>
@@ -854,19 +854,19 @@
         <v>56835</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45929</v>
+        <v>44713</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70778</v>
+        <v>70407</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05069351450933373</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04096611239688044</v>
+        <v>0.03988172090032222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06313006895309101</v>
+        <v>0.06279927190720691</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>7477</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3469</v>
+        <v>3769</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13878</v>
+        <v>14577</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01501018380269656</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006963518890978317</v>
+        <v>0.007566383543430056</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02785964347267497</v>
+        <v>0.02926368715553752</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -904,19 +904,19 @@
         <v>21484</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14718</v>
+        <v>15358</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29539</v>
+        <v>29189</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03448452681390229</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02362423460785669</v>
+        <v>0.02465157080440809</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04741347566374991</v>
+        <v>0.0468515272682842</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -925,19 +925,19 @@
         <v>28961</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21349</v>
+        <v>21528</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38553</v>
+        <v>38136</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02583196393100499</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01904179467663121</v>
+        <v>0.01920228070229242</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03438743358214912</v>
+        <v>0.03401519904123993</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>10578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6143</v>
+        <v>5915</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17241</v>
+        <v>17067</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02123510680710132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01233270963285742</v>
+        <v>0.0118754148541682</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03461246033818968</v>
+        <v>0.03426152710660044</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -975,19 +975,19 @@
         <v>25063</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17622</v>
+        <v>18648</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32810</v>
+        <v>34139</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04022896994899208</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02828581959112992</v>
+        <v>0.02993239609737654</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05266316550237475</v>
+        <v>0.0547968875633992</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -996,19 +996,19 @@
         <v>35641</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27208</v>
+        <v>27118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45910</v>
+        <v>44957</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03178988704232925</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02426818967795614</v>
+        <v>0.02418759932870348</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04094946054082945</v>
+        <v>0.04009966034620255</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>209797</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>185585</v>
+        <v>183628</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>233491</v>
+        <v>235467</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4211695897996016</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3725643272706468</v>
+        <v>0.3686355956296805</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4687363580715352</v>
+        <v>0.4727034549052987</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>87</v>
@@ -1046,19 +1046,19 @@
         <v>63679</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51747</v>
+        <v>51983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>79102</v>
+        <v>78144</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1022116178752172</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08305960870269102</v>
+        <v>0.08343887589731265</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1269669994048243</v>
+        <v>0.1254296894980848</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>289</v>
@@ -1067,19 +1067,19 @@
         <v>273476</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>246806</v>
+        <v>247421</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>304189</v>
+        <v>307699</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2439264838139094</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2201378953694103</v>
+        <v>0.2206864695090244</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2713206992789461</v>
+        <v>0.2744518606698222</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>133633</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>111977</v>
+        <v>110200</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>158325</v>
+        <v>159024</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.268268919275528</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.224794948266079</v>
+        <v>0.2212286805379922</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3178385021979971</v>
+        <v>0.3192431513303156</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>165</v>
@@ -1117,19 +1117,19 @@
         <v>148492</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>128413</v>
+        <v>127646</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>171977</v>
+        <v>171388</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2383446577638377</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2061166221605774</v>
+        <v>0.2048845434476959</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2760417248489583</v>
+        <v>0.2750955937410077</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>266</v>
@@ -1138,19 +1138,19 @@
         <v>282124</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>249275</v>
+        <v>254510</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>316024</v>
+        <v>316336</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2516401796874876</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2223404687851183</v>
+        <v>0.2270101004520483</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2818771330523123</v>
+        <v>0.2821557110454215</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>311895</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286991</v>
+        <v>284864</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>335906</v>
+        <v>335712</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6261320976315974</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.576137481330156</v>
+        <v>0.571867769289838</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6743362262322009</v>
+        <v>0.6739462700356864</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>782</v>
@@ -1188,19 +1188,19 @@
         <v>565415</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>548101</v>
+        <v>549689</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>577834</v>
+        <v>580550</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9075507161784053</v>
+        <v>0.9075507161784055</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8797591408180704</v>
+        <v>0.8823092472976621</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9274844209533136</v>
+        <v>0.9318436905907611</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1070</v>
@@ -1209,19 +1209,19 @@
         <v>877309</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>840878</v>
+        <v>844529</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>905396</v>
+        <v>906951</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7825148013856328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7500199411808444</v>
+        <v>0.7532764105431876</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.807566253609197</v>
+        <v>0.8089538867064048</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>9166</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3316</v>
+        <v>3312</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23182</v>
+        <v>23049</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.009546116136405377</v>
+        <v>0.009546116136405375</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003453394669924171</v>
+        <v>0.003449969487205051</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02414475330658536</v>
+        <v>0.02400630130212744</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1263,19 +1263,19 @@
         <v>6990</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3203</v>
+        <v>2820</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16047</v>
+        <v>15698</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.006267688035234134</v>
+        <v>0.006267688035234133</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002872388217639798</v>
+        <v>0.002528575334507925</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01438981090204435</v>
+        <v>0.01407634867710384</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1284,19 +1284,19 @@
         <v>16155</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8565</v>
+        <v>8298</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30211</v>
+        <v>29981</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007784444595440701</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004127128601026255</v>
+        <v>0.003998207106080101</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01455749701472664</v>
+        <v>0.01444650834074194</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>32230</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23841</v>
+        <v>24955</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41812</v>
+        <v>42365</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03356815408266448</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02483064858548574</v>
+        <v>0.02599119335391856</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04354793959691681</v>
+        <v>0.04412419274993388</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>118</v>
@@ -1334,19 +1334,19 @@
         <v>60358</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49674</v>
+        <v>50645</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72226</v>
+        <v>73101</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.05412467465523384</v>
+        <v>0.05412467465523386</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04454331490475706</v>
+        <v>0.0454144592494179</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0647665009871316</v>
+        <v>0.06555132616926898</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>171</v>
@@ -1355,19 +1355,19 @@
         <v>92588</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>79353</v>
+        <v>78970</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>107879</v>
+        <v>107346</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04461425183329463</v>
+        <v>0.04461425183329462</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03823692722237516</v>
+        <v>0.03805203455800608</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05198225654892861</v>
+        <v>0.05172535713763346</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>12128</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7385</v>
+        <v>6950</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19088</v>
+        <v>19675</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01263153355920177</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007691390222975989</v>
+        <v>0.007238202420858326</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01988038744265328</v>
+        <v>0.02049224771584355</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -1405,19 +1405,19 @@
         <v>25541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18263</v>
+        <v>19093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34614</v>
+        <v>34913</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02290293212188231</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01637694045708039</v>
+        <v>0.01712153733513906</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03103881080583474</v>
+        <v>0.03130709584726542</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -1426,19 +1426,19 @@
         <v>37669</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28623</v>
+        <v>28678</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48669</v>
+        <v>48500</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01815089527017395</v>
+        <v>0.01815089527017394</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01379217901969639</v>
+        <v>0.01381883937470213</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02345125278621376</v>
+        <v>0.02336988414328885</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>17460</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11130</v>
+        <v>11188</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25507</v>
+        <v>25651</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01818517403542782</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01159178232379718</v>
+        <v>0.01165274318921132</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02656603338581924</v>
+        <v>0.02671588415682911</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -1476,19 +1476,19 @@
         <v>28195</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21734</v>
+        <v>21176</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36639</v>
+        <v>37132</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02528308875238191</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01948958194066808</v>
+        <v>0.01898863758411639</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03285485147442679</v>
+        <v>0.03329730307001472</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>87</v>
@@ -1497,19 +1497,19 @@
         <v>45655</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36426</v>
+        <v>36433</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>56534</v>
+        <v>57580</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02199925626361063</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01755185845680405</v>
+        <v>0.0175553684551032</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02724124682496803</v>
+        <v>0.02774527855632749</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>509007</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>474339</v>
+        <v>473723</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>543186</v>
+        <v>543479</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5301395939943007</v>
+        <v>0.5301395939943008</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4940329894889727</v>
+        <v>0.4933908394915203</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5657378508187546</v>
+        <v>0.5660427021823152</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>325</v>
@@ -1547,19 +1547,19 @@
         <v>226235</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>204767</v>
+        <v>204348</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>251224</v>
+        <v>251126</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2028700137360319</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1836189022322214</v>
+        <v>0.1832436024432942</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2252781490269784</v>
+        <v>0.2251904006318592</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>835</v>
@@ -1568,19 +1568,19 @@
         <v>735241</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>694009</v>
+        <v>693965</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>780485</v>
+        <v>779810</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3542804663963909</v>
+        <v>0.3542804663963908</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3344124615627637</v>
+        <v>0.3343912146887614</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3760815317741906</v>
+        <v>0.3757561668217982</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>256495</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>224227</v>
+        <v>226540</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>291073</v>
+        <v>295596</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2671443117080682</v>
+        <v>0.2671443117080683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2335363742377419</v>
+        <v>0.2359451251377667</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3031574849714775</v>
+        <v>0.3078687657735628</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>310</v>
@@ -1618,19 +1618,19 @@
         <v>266681</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>237498</v>
+        <v>241447</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>293663</v>
+        <v>295557</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2391387905681252</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2129697674525799</v>
+        <v>0.2165107319770744</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2633337631451552</v>
+        <v>0.2650323381184083</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>499</v>
@@ -1639,19 +1639,19 @@
         <v>523176</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>481874</v>
+        <v>478656</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>569746</v>
+        <v>564141</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2520954748693111</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2321937135454347</v>
+        <v>0.2306432115772102</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2745354399401893</v>
+        <v>0.2718346058959367</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>602782</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>568647</v>
+        <v>568913</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>632883</v>
+        <v>638557</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6278078550028552</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5922563227725566</v>
+        <v>0.592533636773008</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6591595507758342</v>
+        <v>0.6650683267886667</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1482</v>
@@ -1689,19 +1689,19 @@
         <v>1020612</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>997811</v>
+        <v>999110</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1037569</v>
+        <v>1038365</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.915205106854864</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8947589878909112</v>
+        <v>0.8959235034355935</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9304106622572743</v>
+        <v>0.9311242853344697</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2051</v>
@@ -1710,19 +1710,19 @@
         <v>1623393</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1573476</v>
+        <v>1582004</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1659554</v>
+        <v>1664247</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7822414871933132</v>
+        <v>0.782241487193313</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7581888364648007</v>
+        <v>0.7622980832453715</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7996658673353786</v>
+        <v>0.8019275234567504</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>6263</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2485</v>
+        <v>2480</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14289</v>
+        <v>13579</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005984938666195398</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002374659665506341</v>
+        <v>0.002369612781595718</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01365457971403776</v>
+        <v>0.01297542580434036</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1764,19 +1764,19 @@
         <v>7378</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2722</v>
+        <v>2860</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16360</v>
+        <v>16733</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.007042562936787972</v>
+        <v>0.007042562936787973</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002597926080411589</v>
+        <v>0.002730404253995311</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01561576567816669</v>
+        <v>0.01597206232634232</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -1785,19 +1785,19 @@
         <v>13641</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7026</v>
+        <v>6384</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25234</v>
+        <v>22124</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.006514044322571574</v>
+        <v>0.006514044322571575</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003354927553867699</v>
+        <v>0.003048406500119111</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01205006574597216</v>
+        <v>0.01056497151793458</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>28700</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19442</v>
+        <v>19380</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41215</v>
+        <v>40768</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02742565395980614</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01857805903034561</v>
+        <v>0.01851924703747118</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03938449515768671</v>
+        <v>0.0389573282459548</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -1835,19 +1835,19 @@
         <v>32410</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25431</v>
+        <v>24769</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40845</v>
+        <v>41746</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03093632908385855</v>
+        <v>0.03093632908385856</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02427482403247036</v>
+        <v>0.02364218341224772</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03898723597576153</v>
+        <v>0.03984714125311276</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -1856,19 +1856,19 @@
         <v>61111</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49719</v>
+        <v>49211</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76612</v>
+        <v>75239</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02918196583490572</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02374200254245486</v>
+        <v>0.02349949752360635</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03658453128958096</v>
+        <v>0.03592889572897316</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>29238</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20037</v>
+        <v>20562</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41997</v>
+        <v>41653</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02793893068993704</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01914706809667881</v>
+        <v>0.01964894423700261</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04013141195574853</v>
+        <v>0.03980310872093886</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -1906,19 +1906,19 @@
         <v>29571</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21194</v>
+        <v>21721</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39936</v>
+        <v>40059</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02822598378682442</v>
+        <v>0.02822598378682443</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02023059872571458</v>
+        <v>0.02073292613456826</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03811948472408923</v>
+        <v>0.03823699516776587</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>86</v>
@@ -1927,19 +1927,19 @@
         <v>58808</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46468</v>
+        <v>45688</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>73515</v>
+        <v>74018</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.02808253690385109</v>
+        <v>0.0280825369038511</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02218986269846183</v>
+        <v>0.02181731526117995</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0351055808581365</v>
+        <v>0.03534570845838624</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>18441</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11287</v>
+        <v>11036</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33118</v>
+        <v>32761</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01762220408759985</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01078604898646087</v>
+        <v>0.01054599898994444</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03164714736354238</v>
+        <v>0.03130591336724576</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>42</v>
@@ -1977,19 +1977,19 @@
         <v>23146</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16537</v>
+        <v>16722</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31934</v>
+        <v>31333</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02209351316572615</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01578517894379086</v>
+        <v>0.01596137393304309</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03048219947372185</v>
+        <v>0.02990784108243217</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>63</v>
@@ -1998,19 +1998,19 @@
         <v>41587</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>31305</v>
+        <v>31183</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>57796</v>
+        <v>57164</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01985909954322063</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01494875623861193</v>
+        <v>0.01489060123574773</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.027599095189499</v>
+        <v>0.0272974832223082</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>554261</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>518245</v>
+        <v>520145</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>589342</v>
+        <v>586462</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5296434448743991</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4952277638977635</v>
+        <v>0.4970429515997207</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5631669425369785</v>
+        <v>0.5604142850725458</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>405</v>
@@ -2048,19 +2048,19 @@
         <v>280936</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>257000</v>
+        <v>257791</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>308585</v>
+        <v>306006</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2681606096794031</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2453125538070861</v>
+        <v>0.2460680946764424</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2945522738352464</v>
+        <v>0.2920904175331439</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>991</v>
@@ -2069,19 +2069,19 @@
         <v>835197</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>789360</v>
+        <v>792145</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>877091</v>
+        <v>879722</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3988294582878064</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.376941044469899</v>
+        <v>0.3782707632730352</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4188346910049562</v>
+        <v>0.4200912101921691</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>301832</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>268726</v>
+        <v>267344</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>337057</v>
+        <v>337225</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2884266474231511</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2567904861113899</v>
+        <v>0.255470456936614</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3220863811633834</v>
+        <v>0.3222469545366867</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>344</v>
@@ -2119,19 +2119,19 @@
         <v>275838</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>248757</v>
+        <v>248887</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>303628</v>
+        <v>304639</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2632944026257024</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2374446513672936</v>
+        <v>0.2375684556226469</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2898204628468212</v>
+        <v>0.2907855858029731</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>584</v>
@@ -2140,19 +2140,19 @@
         <v>577671</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>535066</v>
+        <v>533197</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>619725</v>
+        <v>621572</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2758535501054142</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2555085102416543</v>
+        <v>0.254616163881737</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.29593557753203</v>
+        <v>0.2968174255055252</v>
       </c>
     </row>
     <row r="24">
@@ -2169,19 +2169,19 @@
         <v>667300</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>637704</v>
+        <v>634048</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>703226</v>
+        <v>703336</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6376621785918865</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6093810678086715</v>
+        <v>0.6058873277589472</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6719924472198007</v>
+        <v>0.6720976477189068</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1405</v>
@@ -2190,19 +2190,19 @@
         <v>953458</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>933266</v>
+        <v>931466</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>972129</v>
+        <v>971193</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9100992450071973</v>
+        <v>0.9100992450071974</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.890825561772094</v>
+        <v>0.889107109796185</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9279213751191574</v>
+        <v>0.9270271924593533</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2059</v>
@@ -2211,19 +2211,19 @@
         <v>1620758</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1573702</v>
+        <v>1581448</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1653935</v>
+        <v>1661603</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7739563209020932</v>
+        <v>0.7739563209020933</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7514855971734937</v>
+        <v>0.7551845088605914</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7897989985377044</v>
+        <v>0.79346091445116</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>14831</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8765</v>
+        <v>8353</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26895</v>
+        <v>25557</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01520405067763108</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00898549201513375</v>
+        <v>0.008563235043395638</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02757200719180678</v>
+        <v>0.02619992944154811</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -2265,19 +2265,19 @@
         <v>12969</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7114</v>
+        <v>6823</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24919</v>
+        <v>26135</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01424679570273094</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007814738812565572</v>
+        <v>0.007495007817846904</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02737328664149746</v>
+        <v>0.02870900360781647</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -2286,19 +2286,19 @@
         <v>27800</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18134</v>
+        <v>18406</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41389</v>
+        <v>40717</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01474194626941453</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009616351834456138</v>
+        <v>0.009760572458371985</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0219479056063361</v>
+        <v>0.02159166133184957</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>25362</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17254</v>
+        <v>17910</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>35793</v>
+        <v>35317</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02600016661103443</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01768787244222375</v>
+        <v>0.01836064779672446</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03669370420436385</v>
+        <v>0.03620585778083452</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>41</v>
@@ -2336,19 +2336,19 @@
         <v>23854</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16920</v>
+        <v>16919</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32749</v>
+        <v>32490</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02620347384569473</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01858594097036266</v>
+        <v>0.01858571210944888</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03597409826307405</v>
+        <v>0.03568924093901955</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>76</v>
@@ -2357,19 +2357,19 @@
         <v>49216</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39545</v>
+        <v>38721</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>62523</v>
+        <v>63300</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.02609831096318955</v>
+        <v>0.02609831096318956</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0209699224182278</v>
+        <v>0.02053284699124291</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03315501095128137</v>
+        <v>0.03356663417605034</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>52117</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>38549</v>
+        <v>39318</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>68627</v>
+        <v>69991</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.053428560339945</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0395194179879486</v>
+        <v>0.04030772156660724</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07035457157702436</v>
+        <v>0.07175266796109359</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>91</v>
@@ -2407,19 +2407,19 @@
         <v>58176</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>46783</v>
+        <v>46400</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>72229</v>
+        <v>70762</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06390489669340632</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05139039306900518</v>
+        <v>0.05096919110418199</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07934221038944107</v>
+        <v>0.07773135893410496</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>149</v>
@@ -2428,19 +2428,19 @@
         <v>110292</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>90221</v>
+        <v>91139</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>130298</v>
+        <v>131782</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.05848589755712563</v>
+        <v>0.05848589755712561</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04784236300954228</v>
+        <v>0.0483290897295901</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0690945645189892</v>
+        <v>0.06988157940414087</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>13038</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8120</v>
+        <v>7920</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20568</v>
+        <v>20417</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.01336609614569325</v>
+        <v>0.01336609614569326</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008324764655732184</v>
+        <v>0.008119661836195837</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02108545093476045</v>
+        <v>0.02093130988182723</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -2478,19 +2478,19 @@
         <v>9333</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5549</v>
+        <v>5522</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14843</v>
+        <v>14234</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01025251972128337</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00609506655836795</v>
+        <v>0.006065956442349207</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01630504147303431</v>
+        <v>0.01563528306565965</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -2499,19 +2499,19 @@
         <v>22371</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15254</v>
+        <v>16018</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>30470</v>
+        <v>30861</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01186305105450527</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008088901466430678</v>
+        <v>0.008494185984386378</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01615787704629358</v>
+        <v>0.01636504277375239</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>449929</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>415627</v>
+        <v>419301</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>483093</v>
+        <v>485869</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4612551277995354</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4260890242021346</v>
+        <v>0.4298553734504038</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4952538168146433</v>
+        <v>0.498098943072699</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>385</v>
@@ -2549,19 +2549,19 @@
         <v>257390</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>234143</v>
+        <v>233719</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>278846</v>
+        <v>282515</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2827388358131096</v>
+        <v>0.2827388358131097</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2572021228102661</v>
+        <v>0.2567364143212967</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3063079032089662</v>
+        <v>0.3103381843875863</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>848</v>
@@ -2570,19 +2570,19 @@
         <v>707319</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>661940</v>
+        <v>669204</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>750759</v>
+        <v>752166</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.37507833308086</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3510142681185227</v>
+        <v>0.3548664810858088</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3981134111048152</v>
+        <v>0.3988595196787453</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>257304</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>223636</v>
+        <v>224448</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>290296</v>
+        <v>289904</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2637803754931918</v>
+        <v>0.2637803754931919</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.229265098947545</v>
+        <v>0.2300983178168508</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2976038391619023</v>
+        <v>0.2972016456825258</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>326</v>
@@ -2620,19 +2620,19 @@
         <v>248202</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>222701</v>
+        <v>222354</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>275697</v>
+        <v>277084</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2726457002733272</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2446336923954893</v>
+        <v>0.2442522299626269</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3028483831349998</v>
+        <v>0.3043719816934526</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>540</v>
@@ -2641,19 +2641,19 @@
         <v>505505</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>463369</v>
+        <v>464969</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>549700</v>
+        <v>553071</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2680600144280528</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.245716083207465</v>
+        <v>0.2465642082781291</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2914959386610772</v>
+        <v>0.2932832148893741</v>
       </c>
     </row>
     <row r="31">
@@ -2670,19 +2670,19 @@
         <v>708875</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>676789</v>
+        <v>677253</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>740951</v>
+        <v>741054</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.7267187827922557</v>
+        <v>0.7267187827922555</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6938250312351051</v>
+        <v>0.6943013298536534</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7596024682531192</v>
+        <v>0.7597075006302416</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1217</v>
@@ -2691,19 +2691,19 @@
         <v>812320</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>790207</v>
+        <v>787869</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>831408</v>
+        <v>830678</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.8923214781646972</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.8680302973371515</v>
+        <v>0.8654620727866285</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9132887608917493</v>
+        <v>0.9124867658550195</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1915</v>
@@ -2712,19 +2712,19 @@
         <v>1521195</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1481310</v>
+        <v>1477957</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1559112</v>
+        <v>1556167</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.806661679461067</v>
+        <v>0.8066616794610671</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7855114262665132</v>
+        <v>0.7837333750530112</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.8267679338426355</v>
+        <v>0.8252064216496704</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>35219</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23796</v>
+        <v>23828</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>52908</v>
+        <v>52653</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0101197696282068</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006837543505212118</v>
+        <v>0.006846844535061642</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01520266769546048</v>
+        <v>0.01512921627486987</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>32</v>
@@ -2766,19 +2766,19 @@
         <v>29844</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19954</v>
+        <v>19655</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>45433</v>
+        <v>44862</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008074379826350755</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005398581539075446</v>
+        <v>0.005317576332649557</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01229192289963199</v>
+        <v>0.01213737819933467</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>62</v>
@@ -2787,19 +2787,19 @@
         <v>65063</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>48310</v>
+        <v>48142</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>88151</v>
+        <v>84365</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.009066295719522605</v>
+        <v>0.009066295719522607</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006731781531533208</v>
+        <v>0.006708417912526906</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01228357454632194</v>
+        <v>0.01175599745562086</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>105239</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>88161</v>
+        <v>88770</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>124904</v>
+        <v>124048</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03023940507933874</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02533210630644889</v>
+        <v>0.02550720973063637</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03589010187819187</v>
+        <v>0.03564405018830612</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>290</v>
@@ -2837,19 +2837,19 @@
         <v>154511</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>138194</v>
+        <v>138396</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>174868</v>
+        <v>174848</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.04180287358625719</v>
+        <v>0.0418028735862572</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03738835903310078</v>
+        <v>0.03744310992998603</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04731059302582385</v>
+        <v>0.04730520036478811</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>436</v>
@@ -2858,19 +2858,19 @@
         <v>259749</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>236329</v>
+        <v>234216</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>287985</v>
+        <v>287284</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.03619514630522919</v>
+        <v>0.0361951463052292</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03293153462192485</v>
+        <v>0.03263711089558072</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.040129641236323</v>
+        <v>0.04003201522946424</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>100959</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>82185</v>
+        <v>81709</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>123567</v>
+        <v>123167</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02900966752169637</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02361510976014814</v>
+        <v>0.02347825181319333</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03550595261500496</v>
+        <v>0.03539080057267883</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>222</v>
@@ -2908,19 +2908,19 @@
         <v>134771</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>116988</v>
+        <v>115800</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>152775</v>
+        <v>154548</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.03646238359037509</v>
+        <v>0.0364623835903751</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0316512678196201</v>
+        <v>0.03132970476125897</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04133339573720791</v>
+        <v>0.0418129690213003</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>343</v>
@@ -2929,19 +2929,19 @@
         <v>235730</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>210531</v>
+        <v>211234</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>264995</v>
+        <v>264501</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03284817396191624</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02933670302494219</v>
+        <v>0.02943469607212596</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03692615179641036</v>
+        <v>0.03685731328503168</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>59517</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>46252</v>
+        <v>46106</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>77059</v>
+        <v>75635</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01710172082779095</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01329020867181332</v>
+        <v>0.01324799146647851</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02214223327803938</v>
+        <v>0.0217328853778666</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>168</v>
@@ -2979,19 +2979,19 @@
         <v>85738</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>72969</v>
+        <v>73113</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>99918</v>
+        <v>101988</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02319631397462456</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01974188822793144</v>
+        <v>0.01978082769831697</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02703273091043229</v>
+        <v>0.02759274529946233</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>247</v>
@@ -3000,19 +3000,19 @@
         <v>145255</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>126704</v>
+        <v>124776</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>167163</v>
+        <v>165819</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02024072878530035</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01765568259826845</v>
+        <v>0.0173871068736732</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02329361112896728</v>
+        <v>0.02310628246685446</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>1722994</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1656376</v>
+        <v>1658407</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1788804</v>
+        <v>1791684</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4950859326344648</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4759439811273737</v>
+        <v>0.4765276075923394</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5139959077128522</v>
+        <v>0.5148235264120525</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1202</v>
@@ -3050,19 +3050,19 @@
         <v>828240</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>784658</v>
+        <v>778295</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>873612</v>
+        <v>871987</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.224080604105189</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2122895232374833</v>
+        <v>0.2105679576726748</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2363559670144431</v>
+        <v>0.2359161787958354</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2963</v>
@@ -3071,19 +3071,19 @@
         <v>2551234</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2468777</v>
+        <v>2466415</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2626375</v>
+        <v>2634865</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.355505182568677</v>
+        <v>0.3555051825686769</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3440151600500255</v>
+        <v>0.3436860087141401</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3659758384422921</v>
+        <v>0.3671588320736123</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>949264</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>883060</v>
+        <v>888023</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1015835</v>
+        <v>1013256</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2727619296955637</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2537389321313374</v>
+        <v>0.2551649619481268</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2918907070168174</v>
+        <v>0.2911494143848533</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1145</v>
@@ -3121,19 +3121,19 @@
         <v>939212</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>882977</v>
+        <v>889621</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>991309</v>
+        <v>995077</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2541041471379075</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2388896273300526</v>
+        <v>0.2406873034351215</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2681990005698317</v>
+        <v>0.2692182095657837</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1889</v>
@@ -3142,19 +3142,19 @@
         <v>1888476</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1804870</v>
+        <v>1808372</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1968390</v>
+        <v>1968043</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2631522762688389</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2515020383666376</v>
+        <v>0.251990134450091</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2742879408358596</v>
+        <v>0.2742396268542365</v>
       </c>
     </row>
     <row r="38">
@@ -3171,19 +3171,19 @@
         <v>2290851</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2230666</v>
+        <v>2225148</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2354064</v>
+        <v>2352016</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.6582544152581372</v>
+        <v>0.6582544152581371</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6409607749371741</v>
+        <v>0.639375254743203</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6764180764567892</v>
+        <v>0.6758295813275903</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>4886</v>
@@ -3192,19 +3192,19 @@
         <v>3351805</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3315889</v>
+        <v>3308979</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3390482</v>
+        <v>3385596</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.9068316078079179</v>
+        <v>0.906831607807918</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8971145511413371</v>
+        <v>0.8952450703375689</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9172957079856544</v>
+        <v>0.9159738952681367</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>7095</v>
@@ -3213,19 +3213,19 @@
         <v>5642656</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5561887</v>
+        <v>5561494</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5716367</v>
+        <v>5714744</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7862835989411363</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7750287315255858</v>
+        <v>0.7749740656881731</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7965549488120685</v>
+        <v>0.7963288285850184</v>
       </c>
     </row>
     <row r="39">
